--- a/DATASETS/2021 datasets/Warangal1.xlsx
+++ b/DATASETS/2021 datasets/Warangal1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KALADHAR\Documents\GitHub\SBSPS-Challenge-7154-SDG-13-Climate-Action\DATASETS\2021 datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ADAFE7-FF03-4531-9887-B8CA35861515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8883A0-2674-4F37-96F0-82CE02F2DA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2850"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2828" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DATASETS/2021 datasets/Warangal1.xlsx
+++ b/DATASETS/2021 datasets/Warangal1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KALADHAR\Documents\GitHub\SBSPS-Challenge-7154-SDG-13-Climate-Action\DATASETS\2021 datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F4F3A-4D8E-47EE-B84C-944AD97A0518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16DE2F0-0776-4A77-BD44-289402335887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,6 +492,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
